--- a/.Courant/Adressage.xlsx
+++ b/.Courant/Adressage.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\.Courant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\.Courant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250BF7C0-396A-4234-B00B-40B943F0C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="12240"/>
+    <workbookView xWindow="28440" yWindow="465" windowWidth="22530" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Site principal</t>
   </si>
@@ -35,9 +36,6 @@
     <t>Réseau</t>
   </si>
   <si>
-    <t>Plage distribuée</t>
-  </si>
-  <si>
     <t>Passerelle</t>
   </si>
   <si>
@@ -53,18 +51,12 @@
     <t>192.168.128.127/25</t>
   </si>
   <si>
-    <t>Site secondaire</t>
-  </si>
-  <si>
     <t>192.168.128.128/27</t>
   </si>
   <si>
     <t>192.168.128.129/27</t>
   </si>
   <si>
-    <t>192.168..128.159</t>
-  </si>
-  <si>
     <t>192.168.128.130-158/27</t>
   </si>
   <si>
@@ -87,12 +79,24 @@
   </si>
   <si>
     <t>10.0.128.1-10/8</t>
+  </si>
+  <si>
+    <t>Plage d'adresse</t>
+  </si>
+  <si>
+    <t>Succursale secondaire</t>
+  </si>
+  <si>
+    <t>192.168.128.159/27</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,22 +115,28 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,14 +144,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,102 +452,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>20</v>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
